--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2033.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2033.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.15299325868717</v>
+        <v>1.204659104347229</v>
       </c>
       <c r="B1">
-        <v>2.35266296609647</v>
+        <v>2.286876678466797</v>
       </c>
       <c r="C1">
-        <v>6.504143812641371</v>
+        <v>6.253408432006836</v>
       </c>
       <c r="D1">
-        <v>2.365286192284004</v>
+        <v>2.01954460144043</v>
       </c>
       <c r="E1">
-        <v>1.222437871103359</v>
+        <v>1.17466139793396</v>
       </c>
     </row>
   </sheetData>
